--- a/Test1.test2/src/main/java/resources/Book1.xlsx
+++ b/Test1.test2/src/main/java/resources/Book1.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vtiwari1\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3525" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11985" windowHeight="5175"/>
   </bookViews>
   <sheets>
     <sheet name="Demo" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -395,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,6 +471,14 @@
         <v>17</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>111</v>
+      </c>
+      <c r="B10">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
